--- a/src/Controllers/Sheet/sheet-template.xlsx
+++ b/src/Controllers/Sheet/sheet-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\Victor\currency_api\src\Controllers\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B87FDD-9DBA-4EE4-BD3A-4548F49163DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8D25A2-A6C1-4D7D-AA3E-9D97375EB2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9CDE337-A4A4-4202-BDB0-1B9F047ECC56}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Moeda</t>
   </si>
@@ -48,11 +48,17 @@
   <si>
     <t>Data das cotações</t>
   </si>
+  <si>
+    <t>Horário do relatório</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,13 +132,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,12 +461,13 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -476,101 +486,99 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="6">
         <v>44491</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
